--- a/data/data_digitization/collection_data/field_note_data/1_raw_data/HJ-7-collection-entry.xlsx
+++ b/data/data_digitization/collection_data/field_note_data/1_raw_data/HJ-7-collection-entry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/collection_data/field_note_data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/collection_data/field_note_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1C2E1F-7050-2440-8136-C5D3183F5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66E964-CAB7-E74F-A34C-6979070BA519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -1921,7 +1921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{0262923D-9B4C-7E48-B57E-DC6FA182E66C}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{600D10A9-A6C8-C642-81F6-27CD7835EAC6}">
       <text>
         <r>
           <rPr>
@@ -1931,7 +1931,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">occStaus (REQUIRED)
+          <t xml:space="preserve">vTaxonRank (REQUIRED)
 </t>
         </r>
         <r>
@@ -1964,16 +1964,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Definition: occurrence status. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">indicates whether the species was observed to be present or absent
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
 </t>
         </r>
         <r>
@@ -2003,11 +2003,22 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">If special note made about specific taxon not being at a given location = "absent". Otherwise = "present" </t>
+          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{600D10A9-A6C8-C642-81F6-27CD7835EAC6}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{6547EF21-25AE-6F4F-AF2D-4DBC5EF0E9B5}">
       <text>
         <r>
           <rPr>
@@ -2017,7 +2028,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vTaxonRank (REQUIRED)
+          <t xml:space="preserve">recordedBy
 </t>
         </r>
         <r>
@@ -2039,6 +2050,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
 </t>
         </r>
@@ -2050,61 +2080,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{6547EF21-25AE-6F4F-AF2D-4DBC5EF0E9B5}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{7FD26A50-5CA6-FE43-83AC-339CADE77507}">
       <text>
         <r>
           <rPr>
@@ -2114,7 +2103,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">recordedBy
+          <t xml:space="preserve">idBy
 </t>
         </r>
         <r>
@@ -2145,87 +2134,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
+          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{7FD26A50-5CA6-FE43-83AC-339CADE77507}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">idBy
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{755321BC-C668-F042-8E31-CF64ED8C27AF}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{755321BC-C668-F042-8E31-CF64ED8C27AF}">
       <text>
         <r>
           <rPr>
@@ -2316,7 +2230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="186">
   <si>
     <t>habitat</t>
   </si>
@@ -2327,9 +2241,6 @@
     <t>dataEntryRemarks</t>
   </si>
   <si>
-    <t>occStatus</t>
-  </si>
-  <si>
     <t>vLat</t>
   </si>
   <si>
@@ -2417,9 +2328,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>Parker Island salt marsh</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -2510,9 +2418,6 @@
     <t>Taxus brevifolia</t>
   </si>
   <si>
-    <t>North Pender Island; Port Washington; George Hill area</t>
-  </si>
-  <si>
     <t>North Pender Island</t>
   </si>
   <si>
@@ -2543,9 +2448,6 @@
     <t>Physocarpos capitatus</t>
   </si>
   <si>
-    <t>North Pender Island; Port Washington area</t>
-  </si>
-  <si>
     <t>Stellaria calycantha</t>
   </si>
   <si>
@@ -2609,9 +2511,6 @@
     <t>wet meadow with several species of rush, possibly Juncus acuminatus and Juncus gracilis</t>
   </si>
   <si>
-    <t>North Pender Island; fen below Magic Lake</t>
-  </si>
-  <si>
     <t xml:space="preserve">fen, with several rushes </t>
   </si>
   <si>
@@ -2877,6 +2776,18 @@
   </si>
   <si>
     <t>[recordNum]</t>
+  </si>
+  <si>
+    <t>Parker Island; salt marsh</t>
+  </si>
+  <si>
+    <t>North Pender Island; Port Washington; George Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Pender Island; Port Washington </t>
+  </si>
+  <si>
+    <t>North Pender Island; Magic Lake; fen below lake</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2864,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2974,12 +2885,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3018,7 +2923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3033,9 +2938,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3358,12 +3260,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AH115"/>
+  <dimension ref="A1:AG115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="206" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="206" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3393,62 +3295,61 @@
     <col min="24" max="24" width="11.33203125" style="3" customWidth="1"/>
     <col min="25" max="25" width="11.1640625" style="3" customWidth="1"/>
     <col min="26" max="26" width="13" style="3" customWidth="1"/>
-    <col min="27" max="27" width="9" style="3" customWidth="1"/>
-    <col min="28" max="28" width="11.33203125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="11.5" style="3" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" style="3"/>
-    <col min="32" max="32" width="25.5" style="3" customWidth="1"/>
-    <col min="33" max="33" width="29.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="70.6640625" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="10.83203125" style="3"/>
+    <col min="27" max="27" width="11.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="3"/>
+    <col min="31" max="31" width="25.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="29.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="70.6640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>29</v>
+      <c r="M1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
@@ -3457,52 +3358,49 @@
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3513,37 +3411,37 @@
         <v>1930</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="3">
         <v>19810521</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3554,41 +3452,41 @@
         <v>1931</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3">
         <v>19810521</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH3"/>
-    </row>
-    <row r="4" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="AG3"/>
+    </row>
+    <row r="4" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -3599,38 +3497,38 @@
         <v>1932</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3">
         <v>19810528</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4"/>
-    </row>
-    <row r="5" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG4"/>
+    </row>
+    <row r="5" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -3641,38 +3539,38 @@
         <v>1933</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3">
         <v>19810528</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH5"/>
-    </row>
-    <row r="6" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG5"/>
+    </row>
+    <row r="6" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -3683,38 +3581,38 @@
         <v>1934</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="3">
         <v>19810528</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH6"/>
-    </row>
-    <row r="7" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG6"/>
+    </row>
+    <row r="7" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3725,38 +3623,38 @@
         <v>1935</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3">
         <v>19810528</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH7"/>
-    </row>
-    <row r="8" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG7"/>
+    </row>
+    <row r="8" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3767,38 +3665,38 @@
         <v>1936</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>19810528</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH8"/>
-    </row>
-    <row r="9" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG8"/>
+    </row>
+    <row r="9" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3809,38 +3707,38 @@
         <v>1937</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3">
         <v>19810528</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH9"/>
-    </row>
-    <row r="10" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG9"/>
+    </row>
+    <row r="10" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3851,38 +3749,38 @@
         <v>1938</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>19810528</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH10"/>
-    </row>
-    <row r="11" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG10"/>
+    </row>
+    <row r="11" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3893,38 +3791,38 @@
         <v>1939</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3">
         <v>19810528</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH11"/>
-    </row>
-    <row r="12" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG11"/>
+    </row>
+    <row r="12" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3935,38 +3833,38 @@
         <v>1940</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3">
         <v>19810528</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH12"/>
-    </row>
-    <row r="13" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG12"/>
+    </row>
+    <row r="13" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3977,38 +3875,38 @@
         <v>1941</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3">
         <v>19810528</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH13"/>
-    </row>
-    <row r="14" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4019,38 +3917,38 @@
         <v>1942</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3">
         <v>19810528</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH14"/>
-    </row>
-    <row r="15" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -4061,38 +3959,38 @@
         <v>1943</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3">
         <v>19810528</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH15"/>
-    </row>
-    <row r="16" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -4103,38 +4001,38 @@
         <v>1944</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="3">
         <v>19810528</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH16"/>
-    </row>
-    <row r="17" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -4145,38 +4043,38 @@
         <v>1945</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" s="3">
         <v>19810528</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH17"/>
-    </row>
-    <row r="18" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4187,38 +4085,38 @@
         <v>1946</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3">
         <v>19810528</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18"/>
-    </row>
-    <row r="19" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG18"/>
+    </row>
+    <row r="19" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -4229,38 +4127,38 @@
         <v>1947</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="3">
         <v>19810610</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH19"/>
-    </row>
-    <row r="20" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG19"/>
+    </row>
+    <row r="20" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
@@ -4271,38 +4169,38 @@
         <v>1948</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3">
         <v>19810610</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH20"/>
-    </row>
-    <row r="21" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG20"/>
+    </row>
+    <row r="21" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -4313,38 +4211,38 @@
         <v>1949</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H21" s="3">
         <v>19810610</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH21"/>
-    </row>
-    <row r="22" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG21"/>
+    </row>
+    <row r="22" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -4355,38 +4253,38 @@
         <v>1950</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H22" s="3">
         <v>19810610</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH22"/>
-    </row>
-    <row r="23" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9</v>
       </c>
@@ -4397,38 +4295,38 @@
         <v>1951</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H23" s="3">
         <v>19810610</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH23"/>
-    </row>
-    <row r="24" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG23"/>
+    </row>
+    <row r="24" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
@@ -4439,38 +4337,38 @@
         <v>1952</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H24" s="3">
         <v>19810610</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH24"/>
-    </row>
-    <row r="25" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG24"/>
+    </row>
+    <row r="25" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
@@ -4481,38 +4379,38 @@
         <v>1953</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="3">
         <v>19810610</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH25"/>
-    </row>
-    <row r="26" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG25"/>
+    </row>
+    <row r="26" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9</v>
       </c>
@@ -4523,38 +4421,38 @@
         <v>1954</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H26" s="3">
         <v>19810610</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH26"/>
-    </row>
-    <row r="27" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG26"/>
+    </row>
+    <row r="27" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4565,38 +4463,38 @@
         <v>1955</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H27" s="3">
         <v>19810610</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH27"/>
-    </row>
-    <row r="28" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG27"/>
+    </row>
+    <row r="28" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -4607,41 +4505,41 @@
         <v>1956</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H28" s="3">
         <v>19810615</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH28"/>
-    </row>
-    <row r="29" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG28"/>
+    </row>
+    <row r="29" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4652,41 +4550,41 @@
         <v>1957</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H29" s="3">
         <v>19810615</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH29"/>
-    </row>
-    <row r="30" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG29"/>
+    </row>
+    <row r="30" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4697,41 +4595,41 @@
         <v>1958</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H30" s="3">
         <v>19810615</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH30"/>
-    </row>
-    <row r="31" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG30"/>
+    </row>
+    <row r="31" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9</v>
       </c>
@@ -4742,41 +4640,41 @@
         <v>1959</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" s="3">
         <v>19810615</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH31"/>
-    </row>
-    <row r="32" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG31"/>
+    </row>
+    <row r="32" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9</v>
       </c>
@@ -4787,41 +4685,41 @@
         <v>1960</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H32" s="3">
         <v>19810615</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH32"/>
-    </row>
-    <row r="33" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG32"/>
+    </row>
+    <row r="33" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>9</v>
       </c>
@@ -4832,41 +4730,41 @@
         <v>1961</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H33" s="3">
         <v>19810615</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH33"/>
-    </row>
-    <row r="34" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG33"/>
+    </row>
+    <row r="34" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -4877,41 +4775,41 @@
         <v>1962</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H34" s="3">
         <v>19810615</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH34"/>
-    </row>
-    <row r="35" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG34"/>
+    </row>
+    <row r="35" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -4922,41 +4820,41 @@
         <v>1963</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H35" s="3">
         <v>19810615</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH35"/>
-    </row>
-    <row r="36" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG35"/>
+    </row>
+    <row r="36" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -4967,41 +4865,41 @@
         <v>1964</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H36" s="3">
         <v>19810615</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH36"/>
-    </row>
-    <row r="37" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG36"/>
+    </row>
+    <row r="37" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -5012,41 +4910,41 @@
         <v>1965</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H37" s="3">
         <v>19810615</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH37"/>
-    </row>
-    <row r="38" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG37"/>
+    </row>
+    <row r="38" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -5057,41 +4955,41 @@
         <v>1966</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H38" s="3">
         <v>19810615</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH38"/>
-    </row>
-    <row r="39" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG38"/>
+    </row>
+    <row r="39" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -5102,41 +5000,41 @@
         <v>1967</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H39" s="3">
         <v>19810615</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH39"/>
-    </row>
-    <row r="40" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG39"/>
+    </row>
+    <row r="40" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10</v>
       </c>
@@ -5147,41 +5045,41 @@
         <v>1968</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H40" s="3">
         <v>19810615</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH40"/>
-    </row>
-    <row r="41" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG40"/>
+    </row>
+    <row r="41" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -5192,44 +5090,44 @@
         <v>1969</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H41" s="3">
         <v>19810615</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH41"/>
-    </row>
-    <row r="42" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="AG41"/>
+    </row>
+    <row r="42" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10</v>
       </c>
@@ -5240,41 +5138,41 @@
         <v>1970</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H42" s="3">
         <v>19810615</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH42"/>
-    </row>
-    <row r="43" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG42"/>
+    </row>
+    <row r="43" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
@@ -5285,41 +5183,41 @@
         <v>1971</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H43" s="3">
         <v>19810615</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH43"/>
-    </row>
-    <row r="44" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG43"/>
+    </row>
+    <row r="44" spans="1:33" ht="102" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10</v>
       </c>
@@ -5330,41 +5228,41 @@
         <v>1972</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H44" s="3">
         <v>19810615</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH44"/>
-    </row>
-    <row r="45" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="AG44"/>
+    </row>
+    <row r="45" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>11</v>
       </c>
@@ -5375,41 +5273,41 @@
         <v>1973</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H45" s="3">
         <v>19810619</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH45"/>
-    </row>
-    <row r="46" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG45"/>
+    </row>
+    <row r="46" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>11</v>
       </c>
@@ -5420,41 +5318,41 @@
         <v>1974</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H46" s="3">
         <v>19810619</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH46"/>
-    </row>
-    <row r="47" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG46"/>
+    </row>
+    <row r="47" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -5465,41 +5363,41 @@
         <v>1975</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H47" s="3">
         <v>19810619</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH47"/>
-    </row>
-    <row r="48" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG47"/>
+    </row>
+    <row r="48" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11</v>
       </c>
@@ -5510,41 +5408,41 @@
         <v>1976</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H48" s="3">
         <v>19810619</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH48"/>
-    </row>
-    <row r="49" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG48"/>
+    </row>
+    <row r="49" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11</v>
       </c>
@@ -5555,41 +5453,41 @@
         <v>1977</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H49" s="3">
         <v>19810619</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH49"/>
-    </row>
-    <row r="50" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG49"/>
+    </row>
+    <row r="50" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>11</v>
       </c>
@@ -5600,41 +5498,41 @@
         <v>1978</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H50" s="3">
         <v>19810619</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH50"/>
-    </row>
-    <row r="51" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG50"/>
+    </row>
+    <row r="51" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11</v>
       </c>
@@ -5645,41 +5543,41 @@
         <v>1979</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H51" s="3">
         <v>19810619</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH51"/>
-    </row>
-    <row r="52" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG51"/>
+    </row>
+    <row r="52" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -5690,41 +5588,41 @@
         <v>1980</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H52" s="3">
         <v>19810619</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH52"/>
-    </row>
-    <row r="53" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG52"/>
+    </row>
+    <row r="53" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>11</v>
       </c>
@@ -5735,41 +5633,41 @@
         <v>1981</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H53" s="3">
         <v>19810619</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH53"/>
-    </row>
-    <row r="54" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG53"/>
+    </row>
+    <row r="54" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11</v>
       </c>
@@ -5780,41 +5678,41 @@
         <v>1982</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H54" s="3">
         <v>19810619</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH54"/>
-    </row>
-    <row r="55" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG54"/>
+    </row>
+    <row r="55" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>11</v>
       </c>
@@ -5825,41 +5723,41 @@
         <v>1983</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H55" s="3">
         <v>19810619</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH55"/>
-    </row>
-    <row r="56" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG55"/>
+    </row>
+    <row r="56" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11</v>
       </c>
@@ -5870,41 +5768,41 @@
         <v>1984</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H56" s="3">
         <v>19810619</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH56"/>
-    </row>
-    <row r="57" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="AG56"/>
+    </row>
+    <row r="57" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>11</v>
       </c>
@@ -5915,38 +5813,38 @@
         <v>1985</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H57" s="3">
         <v>19810623</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH57"/>
-    </row>
-    <row r="58" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG57"/>
+    </row>
+    <row r="58" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>11</v>
       </c>
@@ -5957,38 +5855,38 @@
         <v>1986</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H58" s="3">
         <v>19810623</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH58"/>
-    </row>
-    <row r="59" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AG58"/>
+    </row>
+    <row r="59" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>12</v>
       </c>
@@ -5999,37 +5897,37 @@
         <v>1987</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H59" s="3">
         <v>19810707</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6040,37 +5938,37 @@
         <v>1988</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H60" s="3">
         <v>19810707</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>12</v>
       </c>
@@ -6081,37 +5979,37 @@
         <v>1989</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H61" s="3">
         <v>19810707</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12</v>
       </c>
@@ -6119,40 +6017,40 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H62" s="3">
         <v>19810707</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>12</v>
       </c>
@@ -6163,37 +6061,37 @@
         <v>1990</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H63" s="3">
         <v>19810707</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>12</v>
       </c>
@@ -6204,37 +6102,37 @@
         <v>1991</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H64" s="3">
         <v>19810707</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>12</v>
       </c>
@@ -6245,40 +6143,40 @@
         <v>1992</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H65" s="3">
         <v>19810707</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>12</v>
       </c>
@@ -6289,37 +6187,37 @@
         <v>1993</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H66" s="3">
         <v>19810707</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>12</v>
       </c>
@@ -6330,37 +6228,37 @@
         <v>1994</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H67" s="3">
         <v>19810707</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6371,37 +6269,37 @@
         <v>1995</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H68" s="3">
         <v>19810707</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>12</v>
       </c>
@@ -6412,40 +6310,40 @@
         <v>1996</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H69" s="3">
         <v>19810707</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>13</v>
       </c>
@@ -6456,40 +6354,40 @@
         <v>1997</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H70" s="3">
         <v>19810707</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z70" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>13</v>
       </c>
@@ -6500,37 +6398,37 @@
         <v>1998</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H71" s="3">
         <v>19810707</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>13</v>
       </c>
@@ -6541,37 +6439,37 @@
         <v>1999</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H72" s="3">
         <v>19810707</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>13</v>
       </c>
@@ -6582,37 +6480,37 @@
         <v>2000</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H73" s="3">
         <v>19810707</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>13</v>
       </c>
@@ -6623,7 +6521,7 @@
         <v>2001</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
@@ -6632,25 +6530,25 @@
         <v>19810707</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF74" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="AE74" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>13</v>
       </c>
@@ -6661,37 +6559,37 @@
         <v>2002</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H75" s="3">
         <v>19810707</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>13</v>
       </c>
@@ -6702,37 +6600,37 @@
         <v>2003</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H76" s="3">
         <v>19810707</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>13</v>
       </c>
@@ -6743,37 +6641,37 @@
         <v>2004</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H77" s="3">
         <v>19810707</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>13</v>
       </c>
@@ -6784,37 +6682,37 @@
         <v>2005</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H78" s="3">
         <v>19810707</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>13</v>
       </c>
@@ -6825,37 +6723,37 @@
         <v>2006</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H79" s="3">
         <v>19810707</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>13</v>
       </c>
@@ -6866,37 +6764,37 @@
         <v>2007</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H80" s="3">
         <v>19810707</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13</v>
       </c>
@@ -6907,37 +6805,37 @@
         <v>2008</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H81" s="3">
         <v>19810707</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13</v>
       </c>
@@ -6948,37 +6846,37 @@
         <v>2009</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H82" s="3">
         <v>19810707</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>13</v>
       </c>
@@ -6989,37 +6887,37 @@
         <v>2010</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H83" s="3">
         <v>19810707</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>13</v>
       </c>
@@ -7030,37 +6928,37 @@
         <v>2011</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H84" s="3">
         <v>19810707</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13</v>
       </c>
@@ -7071,37 +6969,37 @@
         <v>2012</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H85" s="3">
         <v>19810707</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>13</v>
       </c>
@@ -7112,37 +7010,37 @@
         <v>2013</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H86" s="3">
         <v>19810707</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>14</v>
       </c>
@@ -7153,37 +7051,37 @@
         <v>2014</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H87" s="3">
         <v>19810707</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>14</v>
       </c>
@@ -7194,37 +7092,37 @@
         <v>2015</v>
       </c>
       <c r="D88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H88" s="3">
         <v>19810707</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>14</v>
       </c>
@@ -7235,37 +7133,37 @@
         <v>2016</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H89" s="3">
         <v>19810707</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>14</v>
       </c>
@@ -7276,37 +7174,37 @@
         <v>2017</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H90" s="3">
         <v>19810707</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>14</v>
       </c>
@@ -7317,37 +7215,37 @@
         <v>2018</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H91" s="3">
         <v>19810707</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>14</v>
       </c>
@@ -7358,37 +7256,37 @@
         <v>2019</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H92" s="3">
         <v>19810707</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>14</v>
       </c>
@@ -7399,34 +7297,34 @@
         <v>2020</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H93" s="3">
         <v>19810710</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="136" x14ac:dyDescent="0.2">
@@ -7440,37 +7338,37 @@
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H94" s="3">
         <v>19810714</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="136" x14ac:dyDescent="0.2">
@@ -7484,37 +7382,37 @@
         <v>2022</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H95" s="3">
         <v>19810714</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="136" x14ac:dyDescent="0.2">
@@ -7528,37 +7426,37 @@
         <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E96" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H96" s="3">
         <v>19810714</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7572,37 +7470,37 @@
         <v>2024</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F97" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G97" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H97" s="3">
         <v>19810714</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7616,37 +7514,37 @@
         <v>2025</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H98" s="3">
         <v>19810714</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7660,37 +7558,37 @@
         <v>2026</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E99" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H99" s="3">
         <v>19810714</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7704,35 +7602,35 @@
         <v>2027</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H100" s="3">
         <v>19810714</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7746,37 +7644,37 @@
         <v>2028</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E101" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G101" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H101" s="3">
         <v>19810714</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7790,37 +7688,37 @@
         <v>2029</v>
       </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H102" s="3">
         <v>19810714</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7834,37 +7732,37 @@
         <v>2030</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H103" s="3">
         <v>19810714</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7878,40 +7776,40 @@
         <v>2031</v>
       </c>
       <c r="D104" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E104" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H104" s="3">
         <v>19810714</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Z104" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7925,37 +7823,37 @@
         <v>2032</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E105" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H105" s="3">
         <v>19810714</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -7969,37 +7867,37 @@
         <v>2033</v>
       </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H106" s="3">
         <v>19810714</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -8013,37 +7911,37 @@
         <v>2034</v>
       </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H107" s="3">
         <v>19810714</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="136" x14ac:dyDescent="0.2">
@@ -8057,40 +7955,40 @@
         <v>2035</v>
       </c>
       <c r="D108" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E108" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H108" s="3">
         <v>19810714</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Z108" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="102" x14ac:dyDescent="0.2">
@@ -8104,37 +8002,37 @@
         <v>2036</v>
       </c>
       <c r="D109" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E109" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F109" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G109" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H109" s="3">
         <v>19810716</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="102" x14ac:dyDescent="0.2">
@@ -8148,37 +8046,37 @@
         <v>2037</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H110" s="3">
         <v>19810716</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="102" x14ac:dyDescent="0.2">
@@ -8192,37 +8090,37 @@
         <v>2038</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H111" s="3">
         <v>19810716</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="102" x14ac:dyDescent="0.2">
@@ -8236,37 +8134,37 @@
         <v>2039</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H112" s="3">
         <v>19810716</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -8280,37 +8178,37 @@
         <v>2040</v>
       </c>
       <c r="D113" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E113" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H113" s="3">
         <v>19810716</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -8324,37 +8222,37 @@
         <v>2041</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E114" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H114" s="3">
         <v>19810716</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="102" x14ac:dyDescent="0.2">
@@ -8368,37 +8266,37 @@
         <v>2042</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H115" s="3">
         <v>19810716</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
